--- a/GPO_Export_Template.xlsx
+++ b/GPO_Export_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dusti\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8416C71-8693-4ED5-A49C-65211936AF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC16028-66C6-4594-AAB2-F22BF2648683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30168" windowHeight="19464" firstSheet="1" activeTab="1" xr2:uid="{219148B3-EC31-4B45-8AB3-B957F09EF08E}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$V$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$V$23</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="73">
   <si>
     <t>Apply Y/N</t>
   </si>
@@ -247,6 +247,18 @@
   </si>
   <si>
     <t>IE11 GPO</t>
+  </si>
+  <si>
+    <t>RegistrySettings/Registry(1)</t>
+  </si>
+  <si>
+    <t>Preferences</t>
+  </si>
+  <si>
+    <t>Metadata: [{"@clsid":"{9CD4B2F4-923D-47f5-A062-E897DD1DAD50}"},{"@name":"AutoShareWks"},{"@status":"AutoShareWks"},{"@image":"12"},{"@bypassErrors":"1"},{"@changed":"2018-04-16 15:28:17"},{"@uid":"{0C643C4B-D4D9-48EB-847C-44CD143F4810}"}]</t>
+  </si>
+  <si>
+    <t>A Policy</t>
   </si>
 </sst>
 </file>
@@ -335,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -357,12 +369,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -458,38 +529,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>IE11 Security</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Web sites in less privileged Web content zones can navigate into this zone/Web sites in less privileged Web content zones can navigate into this zone</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Windows Components/Internet Explorer/Internet Control Panel/Security Page/Restricted Sites Zone</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Yes</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15063</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Policy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -542,6 +581,48 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>IE11 Security</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Web sites in less privileged Web content zones can navigate into this zone/Web sites in less privileged Web content zones can navigate into this zone</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Windows Components/Internet Explorer/Internet Control Panel/Security Page/Restricted Sites Zone</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Yes</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>15063</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Policy</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0031-41A5-9A40-5A56B08FDF2C}"/>
             </c:ext>
@@ -1598,22 +1679,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E31D421-4EA7-46F0-8F4E-CF6FC68F2C27}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="56.21875" customWidth="1"/>
-    <col min="5" max="5" width="64.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="76.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1"/>
+    <col min="7" max="7" width="46.109375" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="14.5546875" customWidth="1"/>
     <col min="10" max="10" width="13.109375" customWidth="1"/>
@@ -1693,7 +1774,7 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -1727,7 +1808,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
@@ -2345,25 +2426,87 @@
       </c>
       <c r="L22" s="1"/>
     </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:V22" xr:uid="{9E31D421-4EA7-46F0-8F4E-CF6FC68F2C27}"/>
+  <autoFilter ref="A1:V23" xr:uid="{9E31D421-4EA7-46F0-8F4E-CF6FC68F2C27}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:L22">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>AND($A2="Y",$B2="")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>$A2="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>$A2="N"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="8" priority="15">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:L23">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$A23="N"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>$A23="N, See Notes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>AND($A23="Y, See Notes",$B23="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>AND($A23="Y",$B23="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>$A23="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>$A23="Y, See Notes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>$A23="N"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1431" xr:uid="{61621052-B636-4604-841A-C5850A9B7C20}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1432" xr:uid="{61621052-B636-4604-841A-C5850A9B7C20}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2376,15 +2519,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="3f3015bd-6a08-4f1f-ac8d-773686e983a3" xsi:nil="true"/>
@@ -2393,6 +2527,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2625,20 +2768,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87032E4F-090B-4541-B193-34EB261BB670}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8366C7D4-30CE-4CA7-AAA1-87AC0CE3B2A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="3f3015bd-6a08-4f1f-ac8d-773686e983a3"/>
     <ds:schemaRef ds:uri="b020bf9a-9c54-4296-a4c4-4a1521c26618"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87032E4F-090B-4541-B193-34EB261BB670}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
